--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.479586869424565</v>
+        <v>6.268868452723979</v>
       </c>
       <c r="C2" t="n">
         <v>1000</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4740469572437137</v>
+        <v>-0.4033703316514688</v>
       </c>
       <c r="C3" t="n">
         <v>1000</v>
@@ -472,20 +472,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6327770874505945</v>
+        <v>-2.676184643176573</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9198507692954556</v>
-      </c>
-      <c r="C5" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.268868452723979</v>
+        <v>6.543317604821462</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4033703316514688</v>
+        <v>-0.4712688683213287</v>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.676184643176573</v>
+        <v>-2.996506018092723</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,24 @@
           <t>Epoch</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Average_loss</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.543317604821462</v>
+        <v>7.863956776295714</v>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>4562</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00949896002243111</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4712688683213287</v>
+        <v>-0.461269896041624</v>
       </c>
       <c r="C3" t="n">
-        <v>1500</v>
+        <v>4562</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00949896002243111</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.996506018092723</v>
+        <v>-3.748789638491771</v>
       </c>
       <c r="C4" t="n">
-        <v>1500</v>
+        <v>4562</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00949896002243111</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.863956776295714</v>
+        <v>5.63915935331014</v>
       </c>
       <c r="C2" t="n">
-        <v>4562</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00949896002243111</v>
+        <v>0.02540412624064174</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.461269896041624</v>
+        <v>-0.1569353199728871</v>
       </c>
       <c r="C3" t="n">
-        <v>4562</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00949896002243111</v>
+        <v>0.02540412624064174</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.748789638491771</v>
+        <v>-1.367532934135175</v>
       </c>
       <c r="C4" t="n">
-        <v>4562</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00949896002243111</v>
+        <v>0.02540412624064174</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.63915935331014</v>
+        <v>6.319238850473954</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02540412624064174</v>
+        <v>0.01863530713311637</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1569353199728871</v>
+        <v>-0.4313581585358309</v>
       </c>
       <c r="C3" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02540412624064174</v>
+        <v>0.01863530713311637</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.367532934135175</v>
+        <v>-2.335011594986635</v>
       </c>
       <c r="C4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02540412624064174</v>
+        <v>0.01863530713311637</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.319238850473954</v>
+        <v>6.324428107836026</v>
       </c>
       <c r="C2" t="n">
-        <v>3000</v>
+        <v>3018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01863530713311637</v>
+        <v>0.02901956152103828</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4313581585358309</v>
+        <v>-0.4447367453083294</v>
       </c>
       <c r="C3" t="n">
-        <v>3000</v>
+        <v>3018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01863530713311637</v>
+        <v>0.02901956152103828</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.335011594986635</v>
+        <v>-2.370760209138891</v>
       </c>
       <c r="C4" t="n">
-        <v>3000</v>
+        <v>3018</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01863530713311637</v>
+        <v>0.02901956152103828</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.324428107836026</v>
+        <v>4.847810275075497</v>
       </c>
       <c r="C2" t="n">
-        <v>3018</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02901956152103828</v>
+        <v>0.03783448596776771</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4447367453083294</v>
+        <v>-0.3700790037768732</v>
       </c>
       <c r="C3" t="n">
-        <v>3018</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02901956152103828</v>
+        <v>0.03783448596776771</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.370760209138891</v>
+        <v>-1.714012092152911</v>
       </c>
       <c r="C4" t="n">
-        <v>3018</v>
+        <v>1500</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02901956152103828</v>
+        <v>0.03783448596776771</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.847810275075497</v>
+        <v>4.849068860732412</v>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03783448596776771</v>
+        <v>0.05522810650335838</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3700790037768732</v>
+        <v>-0.3727269908411959</v>
       </c>
       <c r="C3" t="n">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03783448596776771</v>
+        <v>0.05522810650335838</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.714012092152911</v>
+        <v>-1.72071684798737</v>
       </c>
       <c r="C4" t="n">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03783448596776771</v>
+        <v>0.05522810650335838</v>
       </c>
     </row>
   </sheetData>
